--- a/biology/Médecine/Pression_œsophagienne/Pression_œsophagienne.xlsx
+++ b/biology/Médecine/Pression_œsophagienne/Pression_œsophagienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pression_%C5%93sophagienne</t>
+          <t>Pression_œsophagienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pression œsophagienne (Pœso) est en médecine une mesure réalisée lors d'un enregistrement polysomnographique et permettant de déterminer l'effort respiratoire d'un patient[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pression œsophagienne (Pœso) est en médecine une mesure réalisée lors d'un enregistrement polysomnographique et permettant de déterminer l'effort respiratoire d'un patient. 
 Elle se mesure grâce un tube très fin qui passe par le nez et se termine dans l’œsophage pour mesurer la pression intra-thoracique.
 </t>
         </is>
